--- a/Main Website/media/IDFC_HL/FOS Salary/FINAL INCENTIVE IDFC-HL(TL).xlsx
+++ b/Main Website/media/IDFC_HL/FOS Salary/FINAL INCENTIVE IDFC-HL(TL).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +599,31 @@
           <t>RB_INCENTIVE</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>EMPLOYEE_ID</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>MANAGER_ID</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>DESIGNATION</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>EMPLOYEE_STATUS</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -704,6 +729,31 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -809,6 +859,31 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -914,6 +989,31 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1019,6 +1119,31 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1124,6 +1249,31 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1229,6 +1379,31 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1333,6 +1508,31 @@
       </c>
       <c r="AG8" t="n">
         <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Main Website/media/IDFC_HL/FOS Salary/FINAL INCENTIVE IDFC-HL(TL).xlsx
+++ b/Main Website/media/IDFC_HL/FOS Salary/FINAL INCENTIVE IDFC-HL(TL).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,25 +601,30 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
           <t>EMPLOYEE_ID</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>MANAGER_ID</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>DESIGNATION</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>STAFF</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>EMPLOYEE_STATUS</t>
         </is>
@@ -729,27 +734,24 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>O72</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>OFFICE</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -859,27 +861,24 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>O281</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>OFFICE</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -989,27 +988,24 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>O281</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>OFFICE</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -1119,27 +1115,24 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>O281</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>OFFICE</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -1249,27 +1242,24 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>O281</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>OFFICE</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -1379,27 +1369,24 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>O281</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>OFFICE</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
@@ -1509,27 +1496,24 @@
       <c r="AG8" t="n">
         <v>0</v>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>O281</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>OFFICE</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>ACTIVE</t>
         </is>
